--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_solar_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_solar_offshore.xlsx
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01014656144306652</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03081232492997203</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.03058954393770857</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.01312910284463895</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -512,28 +512,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05073280721533252</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05770308123249294</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006793478260869565</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.001284521515735388</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.05728587319243589</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.05579868708971549</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.08165057067603174</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.04327485380116956</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1721014492753623</v>
+        <v>0.1130204890945138</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04268639726807051</v>
+        <v>0.01317715959004392</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1214892227302419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03800475059382422</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2660653889515226</v>
+        <v>0.0003996802557953637</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2263305322128845</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3512228260869574</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006105006105006105</v>
+        <v>0.3481053307642928</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.2280311457174627</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2308533916849024</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.02757158006362672</v>
       </c>
     </row>
     <row r="6">
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006764374295377677</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02184873949579833</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.02169076751946607</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.006564551422319475</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.04038630377524143</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -697,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1521984216459977</v>
+        <v>0.4368505195843259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06722689075630243</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3580163043478272</v>
+        <v>0.1394765148798852</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4249084249084236</v>
+        <v>0.3179190751445101</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0014194464158978</v>
+        <v>0.06507230255839802</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2951441578148707</v>
+        <v>0.135667396061269</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.03248463564530289</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.003181336161187699</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.01053555750658472</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1286549707602336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01992753623188406</v>
+        <v>0.09517514871116955</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1052931132612411</v>
+        <v>0.1207906295754026</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1247550620509473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007125890736342044</v>
+        <v>0.03511852502194907</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07427536231884056</v>
+        <v>0.01586252478519498</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01567602873938603</v>
+        <v>0.007423117709437964</v>
       </c>
     </row>
     <row r="13">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04929971988795515</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0489432703003336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -919,28 +919,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3912063134160077</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1378151260504198</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03464673913043478</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.04110468850353238</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.1368186874304777</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.3654266958424501</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.03333333333333335</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0324416619237336</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3230403800475067</v>
+        <v>0.04126426690079016</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01512605042016806</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09239130434782601</v>
+        <v>0.05287508261731649</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1011,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.01501668520578421</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05225342913128666</v>
+        <v>0.2926829268292691</v>
       </c>
     </row>
     <row r="17">
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002254791431792559</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003921568627450979</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1048,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.00389321468298109</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.002188183807439825</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.003511852502194908</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.001982815598149372</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001959503592423253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1104,28 +1104,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003382187147688839</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09411764705882335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01290760869565217</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01220295439948619</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.09343715239154579</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.003282275711159737</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02296918767507004</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.02280311457174639</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007891770011273957</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04201680672268907</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.04115684093437147</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.008752735229759299</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.001169590643274854</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.08345534407027819</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06764374295377666</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1288515406162462</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.1273637374860951</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.0667396061269146</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.001755926251097454</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003623188405797101</v>
+        <v>0.007270323859881032</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007184846505551928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3230403800475067</v>
+        <v>0.06935908691834947</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.0614035087719297</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1576086956521739</v>
+        <v>0.09781890284203537</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0870802504268641</v>
+        <v>0.04612005856515373</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1064663618549969</v>
+        <v>0.2969247083775194</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008313539192399052</v>
+        <v>0.05882352941176469</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.07602339181286531</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1249999999999998</v>
+        <v>0.2709847984137472</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0535002845759817</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.290659699542782</v>
+        <v>0.008483563096500531</v>
       </c>
     </row>
     <row r="34">
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003361344537815125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.003337041156840935</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
